--- a/simulations/raw_inclusion_exclusion/van_de_Schoot_2017 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/van_de_Schoot_2017 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,10 +713,10 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.5785651408450704</v>
+        <v>0.8928257042253521</v>
       </c>
       <c r="I3">
-        <v>0.3367206298035368</v>
+        <v>0.02152685308477586</v>
       </c>
       <c r="J3">
-        <v>-0.1052631578947368</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="K3">
-        <v>1536.763157894737</v>
+        <v>116.5</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -755,34 +755,34 @@
         <v>34</v>
       </c>
       <c r="Q3">
-        <v>1443</v>
+        <v>33</v>
       </c>
       <c r="R3">
-        <v>1473</v>
+        <v>61</v>
       </c>
       <c r="S3">
-        <v>1510</v>
+        <v>76</v>
       </c>
       <c r="T3">
-        <v>1528</v>
+        <v>93</v>
       </c>
       <c r="U3">
-        <v>1547</v>
+        <v>121</v>
       </c>
       <c r="V3">
-        <v>3063</v>
+        <v>4473</v>
       </c>
       <c r="W3">
-        <v>3033</v>
+        <v>4445</v>
       </c>
       <c r="X3">
-        <v>2996</v>
+        <v>4430</v>
       </c>
       <c r="Y3">
-        <v>2978</v>
+        <v>4413</v>
       </c>
       <c r="Z3">
-        <v>2959</v>
+        <v>4385</v>
       </c>
       <c r="AA3">
         <v>35</v>
@@ -800,19 +800,19 @@
         <v>4</v>
       </c>
       <c r="AF3">
-        <v>0.67976</v>
+        <v>0.992676</v>
       </c>
       <c r="AG3">
-        <v>0.673103</v>
+        <v>0.986462</v>
       </c>
       <c r="AH3">
-        <v>0.664891</v>
+        <v>0.983134</v>
       </c>
       <c r="AI3">
-        <v>0.660897</v>
+        <v>0.979361</v>
       </c>
       <c r="AJ3">
-        <v>0.65668</v>
+        <v>0.973147</v>
       </c>
     </row>
   </sheetData>
